--- a/Used-Journal-Subjective_Eval/文件名_new.xlsx
+++ b/Used-Journal-Subjective_Eval/文件名_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui Lu\Desktop\luhui\projects\xx_mos_files\Used-Journal-Subjective_Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64EDC8A-5F30-4778-80DE-E1D0FE988995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F52FCFB-31D8-465E-A61D-0F8B55357A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="433" yWindow="2640" windowWidth="15000" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>parallel-MOS TEST1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,66 @@
   <si>
     <t>AMidsummerNightsDream--145_0_t15</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 2 3 1 4</t>
+  </si>
+  <si>
+    <t>5 3 2 1 4</t>
+  </si>
+  <si>
+    <t>5 4 2 1 3</t>
+  </si>
+  <si>
+    <t>2 4 5 3 1</t>
+  </si>
+  <si>
+    <t>3 1 5 4 2</t>
+  </si>
+  <si>
+    <t>3 4 1 2 5</t>
+  </si>
+  <si>
+    <t>3 2 4 5 1</t>
+  </si>
+  <si>
+    <t>2 5 4 1 3</t>
+  </si>
+  <si>
+    <t>3 1 4 5 2</t>
+  </si>
+  <si>
+    <t>2 1 5 3 4</t>
+  </si>
+  <si>
+    <t>4 3 5 1 2</t>
+  </si>
+  <si>
+    <t>5 2 1 4 3</t>
+  </si>
+  <si>
+    <t>4 1 3 5 2</t>
+  </si>
+  <si>
+    <t>4 3 5 2 1</t>
+  </si>
+  <si>
+    <t>1 4 5 2 3</t>
+  </si>
+  <si>
+    <t>4 3 1 5 2</t>
+  </si>
+  <si>
+    <t>5 4 3 2 1</t>
+  </si>
+  <si>
+    <t>2 4 5 1 3</t>
+  </si>
+  <si>
+    <t>5 4 2 3 1</t>
+  </si>
+  <si>
+    <t>1 4 3 2 5</t>
   </si>
 </sst>
 </file>
@@ -249,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +321,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,12 +611,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.234375" customWidth="1"/>
+    <col min="2" max="2" width="9.29296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1171875" style="5" customWidth="1"/>
     <col min="4" max="4" width="38.76171875" customWidth="1"/>
     <col min="5" max="5" width="33.8203125" customWidth="1"/>
   </cols>
@@ -567,8 +635,11 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -578,8 +649,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -589,8 +663,11 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -600,8 +677,11 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -611,8 +691,11 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -622,8 +705,11 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>41</v>
@@ -636,8 +722,11 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>43</v>
@@ -650,8 +739,11 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -661,8 +753,11 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -672,8 +767,11 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -683,8 +781,11 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -694,8 +795,11 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -705,8 +809,11 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -716,8 +823,11 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -727,8 +837,11 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -738,8 +851,11 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -749,8 +865,11 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -760,8 +879,11 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -771,8 +893,11 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
@@ -782,8 +907,11 @@
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>

--- a/Used-Journal-Subjective_Eval/文件名_new.xlsx
+++ b/Used-Journal-Subjective_Eval/文件名_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui Lu\Desktop\luhui\projects\xx_mos_files\Used-Journal-Subjective_Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F52FCFB-31D8-465E-A61D-0F8B55357A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84324D2E-BAF2-4B03-9285-EAAC24435349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>parallel-MOS TEST1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,26 @@
   </si>
   <si>
     <t>1 4 3 2 5</t>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
@@ -617,303 +637,363 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.234375" customWidth="1"/>
-    <col min="2" max="2" width="9.29296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1171875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.76171875" customWidth="1"/>
-    <col min="5" max="5" width="33.8203125" customWidth="1"/>
+    <col min="2" max="3" width="9.29296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.1171875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.76171875" customWidth="1"/>
+    <col min="6" max="6" width="33.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="4">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="4">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="4">
         <v>24</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="4">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="4">
         <v>28</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="4">
         <v>31</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Used-Journal-Subjective_Eval/文件名_new.xlsx
+++ b/Used-Journal-Subjective_Eval/文件名_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui Lu\Desktop\luhui\projects\xx_mos_files\Used-Journal-Subjective_Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84324D2E-BAF2-4B03-9285-EAAC24435349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14893C09-A501-419B-8D08-DE49E6CF3D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>parallel-MOS TEST1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,105 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--202_t8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--410_t17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--368_t24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallel-MOS TEST1</t>
+  </si>
+  <si>
+    <t>non-parallel MOS-TEST2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream_47_t11</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--100_0_t19</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--115_0_t14</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--116_2_t7</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--202_t8</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--131_0_20</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--145_0_t15</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--410_t17</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--189_t21</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_47_t1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_60_0_t4</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_189_t12</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_219_t2</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_232_t27</t>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--364_t40</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_265_t9</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_274_18</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_283_t16</t>
+  </si>
+  <si>
+    <t>RomeoAndJuliet_321_t26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream_366_t23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--368_t25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,7 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,14 +444,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,373 +736,785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.234375" customWidth="1"/>
-    <col min="2" max="3" width="9.29296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.1171875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.29296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1171875" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.76171875" customWidth="1"/>
     <col min="6" max="6" width="33.8203125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>34</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>24</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>39</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G18" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>41</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>28</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>31</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3">
+        <v>17</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3">
+        <v>23</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3">
+        <v>24</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3">
+        <v>28</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3">
+        <v>31</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Used-Journal-Subjective_Eval/文件名_new.xlsx
+++ b/Used-Journal-Subjective_Eval/文件名_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui Lu\Desktop\luhui\projects\xx_mos_files\Used-Journal-Subjective_Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14893C09-A501-419B-8D08-DE49E6CF3D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D81A0D8-D455-4FBA-BD6C-68855CF5A9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,13 +738,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.234375" customWidth="1"/>
+    <col min="1" max="1" width="5.234375" customWidth="1"/>
     <col min="2" max="3" width="9.29296875" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.1171875" style="4" customWidth="1"/>
     <col min="5" max="5" width="38.76171875" customWidth="1"/>
@@ -1170,350 +1170,412 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>7</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>10</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>11</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>8</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>13</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>15</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>17</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>20</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>19</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>34</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>23</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="3">
+      <c r="C40" s="3">
         <v>24</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>41</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="3">
+      <c r="C43" s="3">
         <v>28</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="3">
+      <c r="C44" s="3">
         <v>31</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>96</v>
       </c>
     </row>

--- a/Used-Journal-Subjective_Eval/文件名_new.xlsx
+++ b/Used-Journal-Subjective_Eval/文件名_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hui Lu\Desktop\luhui\projects\xx_mos_files\Used-Journal-Subjective_Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D81A0D8-D455-4FBA-BD6C-68855CF5A9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32A8869-32EB-4581-ACB9-F1B497152B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,9 +319,6 @@
     <t>AMidsummerNightsDream--145_0_t15</t>
   </si>
   <si>
-    <t>AMidsummerNightsDream--410_t17</t>
-  </si>
-  <si>
     <t>AMidsummerNightsDream--189_t21</t>
   </si>
   <si>
@@ -364,6 +361,10 @@
   </si>
   <si>
     <t>AMidsummerNightsDream--368_t25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMidsummerNightsDream--410_t22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +740,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -1336,7 +1337,7 @@
         <v>51</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1356,7 +1357,7 @@
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1376,7 +1377,7 @@
         <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1390,13 +1391,13 @@
         <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1416,7 +1417,7 @@
         <v>55</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1430,13 +1431,13 @@
         <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1450,13 +1451,13 @@
         <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -1476,7 +1477,7 @@
         <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -1490,13 +1491,13 @@
         <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -1516,7 +1517,7 @@
         <v>60</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -1524,7 +1525,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3">
         <v>41</v>
@@ -1536,7 +1537,7 @@
         <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -1556,7 +1557,7 @@
         <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -1576,12 +1577,12 @@
         <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>